--- a/biology/Botanique/Temperate_House/Temperate_House.xlsx
+++ b/biology/Botanique/Temperate_House/Temperate_House.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Temperate House est une serre botanique de type victorien des jardins botaniques royaux de Kew à Londres au Royaume-Uni. Il s'agit de la plus grande serre au monde du type victorien[1]. Ouverte en 1862, son architecte est Decimus Burton. La serre est d'une superficie de 4 880 mètre carré[1]. La serre rouvre en 2018 après 5 ans de travaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Temperate House est une serre botanique de type victorien des jardins botaniques royaux de Kew à Londres au Royaume-Uni. Il s'agit de la plus grande serre au monde du type victorien. Ouverte en 1862, son architecte est Decimus Burton. La serre est d'une superficie de 4 880 mètre carré. La serre rouvre en 2018 après 5 ans de travaux.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette serre dédiée aux plantes de climat subtropical humide et méditerranéen est deux fois plus grande que Palm House, ce qui en fait la plus grande serre victorienne encore existante au monde. Devant l'immense quantité de plantes venant des quatre coins du monde, Palm House ne suffisait plus. En 1859, les travaux commencèrent sous les ordres de Decimus Burton. La serre fut officiellement ouverte en 1863, bien que seulement en partie terminée en raison de coûts de travaux plus élevés que prévu. Elle ne fut complétée que quatre décennies plus tard en 1899.
 Entre 1972 et 1975, de lourdes restaurations furent entreprises pour réparer les structures métalliques, très endommagées. Deux ailes se déploient autour de la serre centrale qui concentre les plus grands arbres. L'aile Nord correspond aux plantes d'Australie, de Nouvelle-Zélande, d'Asie et du Pacifique. L'aile Sud présente les plantes africaines.
-De 2013 à 2018, la serre est fermée pour rénovation[1]. Elle a rouvert en mai 2018[2].
+De 2013 à 2018, la serre est fermée pour rénovation. Elle a rouvert en mai 2018.
 </t>
         </is>
       </c>
